--- a/CriticalFlowPath/backend/src/tests/4/TSU_CFA.xlsx
+++ b/CriticalFlowPath/backend/src/tests/4/TSU_CFA.xlsx
@@ -2,329 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfredo Paz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C7F82C36-0C3C-49C3-B8DF-0CB20B477B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA68025-069D-40C6-97CF-B78C8CCED96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FD880E5D-9B48-4C8F-865D-6A819D06D370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="\C">#REF!</definedName>
-    <definedName name="\cc">#REF!</definedName>
-    <definedName name="\irr">#REF!</definedName>
-    <definedName name="\MACRO">#REF!</definedName>
-    <definedName name="\macros">#REF!</definedName>
-    <definedName name="\P">#REF!</definedName>
-    <definedName name="\pp">#REF!</definedName>
-    <definedName name="\Q">#REF!</definedName>
-    <definedName name="\Z">#REF!</definedName>
-    <definedName name="_IRR2">#REF!</definedName>
-    <definedName name="A">#REF!</definedName>
-    <definedName name="aaaa">#REF!</definedName>
-    <definedName name="Activities">#REF!</definedName>
-    <definedName name="Activities2">#REF!</definedName>
-    <definedName name="adfafd">#REF!</definedName>
-    <definedName name="adg">#REF!</definedName>
-    <definedName name="Admin">#REF!</definedName>
-    <definedName name="Admin1">#REF!</definedName>
-    <definedName name="admin23">#REF!</definedName>
-    <definedName name="adsf">#REF!</definedName>
-    <definedName name="aeew">#REF!</definedName>
-    <definedName name="aefa">#REF!</definedName>
-    <definedName name="aefyhh">#REF!</definedName>
-    <definedName name="afdsafa">#REF!</definedName>
-    <definedName name="agaegrg">#REF!</definedName>
-    <definedName name="agagg">#REF!</definedName>
-    <definedName name="agggg">#REF!</definedName>
-    <definedName name="aggggg">#REF!</definedName>
-    <definedName name="agwrgrg">#REF!</definedName>
-    <definedName name="Appliance_Standard_Package">#REF!</definedName>
-    <definedName name="approval">#REF!,#REF!</definedName>
-    <definedName name="ARE">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="AREA">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="as">#REF!</definedName>
-    <definedName name="asdasd">#REF!</definedName>
-    <definedName name="asdasdasdasdasd">#REF!</definedName>
-    <definedName name="Asdf">#REF!</definedName>
-    <definedName name="asdffdsa">#REF!</definedName>
-    <definedName name="asg">#REF!</definedName>
-    <definedName name="awgaaa">#REF!</definedName>
-    <definedName name="B">#REF!</definedName>
-    <definedName name="ben">#REF!</definedName>
-    <definedName name="BLDG">#REF!</definedName>
-    <definedName name="BLDGs_A">#REF!</definedName>
-    <definedName name="BLDGsA">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="BSIPbPageSetupChartSize" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupChartSize_0" hidden="1">-2146826246</definedName>
-    <definedName name="BSIPbPageSetupDraftQuality" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupDraftQuality_0" hidden="1">0</definedName>
-    <definedName name="BSIPbPageSetupDrawingColor" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupDrawingColor_0" hidden="1">0</definedName>
-    <definedName name="BSIPbPageSetupFitToPagesTall" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupFitToPagesTall_0" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupFitToPagesWide" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupFitToPagesWide_0" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupMediaName" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupMediaName_0" hidden="1">"Envelope C4 (229 mm x 324 mm)"</definedName>
-    <definedName name="BSIPbPageSetupPageOrientation" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPageOrientation_0" hidden="1">2</definedName>
-    <definedName name="BSIPbPageSetupPaperHeight" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperHeight_0" hidden="1">918.4256928</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginBottom" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginBottom_0" hidden="1">53.8582677165354</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginFooter" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginFooter_0" hidden="1">22.6771653543307</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginHeader" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginHeader_0" hidden="1">22.6771653543307</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginLeft" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginLeft_0" hidden="1">17.007874015748</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginRight" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginRight_0" hidden="1">17.007874015748</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginTop" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperMarginTop_0" hidden="1">53.8582677165354</definedName>
-    <definedName name="BSIPbPageSetupPaperWidth" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPaperWidth_0" hidden="1">649.1342088</definedName>
-    <definedName name="BSIPbPageSetupPlotSizeType" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPlotSizeType_0" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPrintCellErrors" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPrintCellErrors_0" hidden="1">0</definedName>
-    <definedName name="BSIPbPageSetupPrintComments" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPrintComments_0" hidden="1">-4142</definedName>
-    <definedName name="BSIPbPageSetupPrintGridlines" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupPrintGridlines_0" hidden="1">0</definedName>
-    <definedName name="BSIPbPageSetupUseStandardMargins" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupUseStandardMargins_0" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupUseZoom" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupUseZoom_0" hidden="1">0</definedName>
-    <definedName name="BSIPbPageSetupZoom" hidden="1">1</definedName>
-    <definedName name="BSIPbPageSetupZoom_0" hidden="1">100</definedName>
-    <definedName name="BSIPlots" hidden="1">1</definedName>
-    <definedName name="BSIPlots_0" hidden="1">"53.8582677165354þ53.8582677165354þ17.007874015748þ17.007874015748þ22.6771653543307þ22.6771653543307þ1þ0þ100þ1þ1þ2þ0þ0þ0þ-4142þ0þ-2146826246þ1þEnvelope C4 (229 mm x 324 mm)þ649.1342088þ918.4256928"</definedName>
-    <definedName name="BSIWhichPageSetup" hidden="1">1</definedName>
-    <definedName name="BSIWhichPageSetup_0" hidden="1">"1þGlobal"</definedName>
-    <definedName name="Bulding_1_Revinue">#REF!</definedName>
-    <definedName name="Bulding_2_Revinue">#REF!</definedName>
-    <definedName name="Bulding_3_Revinue">#REF!</definedName>
-    <definedName name="Bulding_4_Revinue">#REF!</definedName>
-    <definedName name="CG">#REF!</definedName>
-    <definedName name="co">#REF!</definedName>
-    <definedName name="con">#REF!</definedName>
-    <definedName name="cons">#REF!</definedName>
-    <definedName name="constru">#REF!</definedName>
-    <definedName name="constructi">#REF!</definedName>
-    <definedName name="construction">#REF!</definedName>
-    <definedName name="D">#REF!</definedName>
-    <definedName name="Dashboard">#REF!</definedName>
-    <definedName name="data">#REF!</definedName>
-    <definedName name="dave">#REF!</definedName>
-    <definedName name="dfgdg">#REF!</definedName>
-    <definedName name="dfsvffv">#REF!</definedName>
-    <definedName name="doug">#REF!</definedName>
-    <definedName name="dvfdvs">#REF!</definedName>
-    <definedName name="E">#REF!</definedName>
-    <definedName name="e4t4t4">#REF!</definedName>
-    <definedName name="ea">#REF!</definedName>
-    <definedName name="eaft">#REF!</definedName>
-    <definedName name="egwgg">#REF!</definedName>
-    <definedName name="erfw">#REF!</definedName>
-    <definedName name="erfwf">#REF!</definedName>
-    <definedName name="ergsc">#REF!</definedName>
-    <definedName name="erherherh">#REF!</definedName>
-    <definedName name="erhserh">#REF!</definedName>
-    <definedName name="errehv">#REF!</definedName>
-    <definedName name="erret">#REF!</definedName>
-    <definedName name="eshshes">#REF!</definedName>
-    <definedName name="esrhh">#REF!</definedName>
-    <definedName name="ethttt">#REF!</definedName>
-    <definedName name="ewewe">#REF!</definedName>
-    <definedName name="ewqeee">#REF!</definedName>
-    <definedName name="fafef">#REF!</definedName>
-    <definedName name="fead">#REF!</definedName>
-    <definedName name="feewqw">#REF!</definedName>
-    <definedName name="fgsg">#REF!</definedName>
-    <definedName name="fjkkk">#REF!</definedName>
-    <definedName name="fxdgjh">#REF!</definedName>
-    <definedName name="g">#REF!</definedName>
-    <definedName name="gasfired">"L:\Projects\32-03103-00\^dwg\Me\Schedules\SATTEN.X2A"</definedName>
-    <definedName name="gene">#REF!</definedName>
-    <definedName name="geno">#REF!</definedName>
-    <definedName name="ggtreg">#REF!</definedName>
-    <definedName name="gherh">#REF!</definedName>
-    <definedName name="ghluy" hidden="1">{"HODSON ST 2",#N/A,FALSE,"St 1 &amp; 2";"HODSON ST 4",#N/A,FALSE,"St 1 &amp; 2"}</definedName>
-    <definedName name="ghuoij">#REF!</definedName>
-    <definedName name="gjhki">#REF!</definedName>
-    <definedName name="glygl">#REF!</definedName>
-    <definedName name="guoikh">#REF!</definedName>
-    <definedName name="gwgag">#REF!</definedName>
-    <definedName name="Hew">#REF!</definedName>
-    <definedName name="hey">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="hhra">#REF!</definedName>
-    <definedName name="hhsse">#REF!</definedName>
-    <definedName name="hklhl">#REF!</definedName>
-    <definedName name="hlhl">#REF!</definedName>
-    <definedName name="hnbbe">#REF!</definedName>
-    <definedName name="htsa">#REF!</definedName>
-    <definedName name="huoij">#REF!</definedName>
-    <definedName name="jfkfjk">#REF!</definedName>
-    <definedName name="jimmy">#REF!</definedName>
-    <definedName name="jjts">#REF!</definedName>
-    <definedName name="joe">#REF!</definedName>
-    <definedName name="john">#REF!</definedName>
-    <definedName name="jon">#REF!</definedName>
-    <definedName name="klhjkl">#REF!</definedName>
-    <definedName name="L">#REF!</definedName>
-    <definedName name="llll">#REF!</definedName>
-    <definedName name="LO">#REF!</definedName>
-    <definedName name="loan">#REF!</definedName>
-    <definedName name="loan_Manor">#REF!</definedName>
-    <definedName name="loan_Terrace">#REF!</definedName>
-    <definedName name="LOE">#REF!</definedName>
-    <definedName name="LOR">#REF!</definedName>
-    <definedName name="LORI">#REF!</definedName>
-    <definedName name="LOW">#REF!</definedName>
-    <definedName name="LRI">#REF!</definedName>
-    <definedName name="monthly1" hidden="1">{"HODSON ST 2",#N/A,FALSE,"St 1 &amp; 2";"HODSON ST 4",#N/A,FALSE,"St 1 &amp; 2"}</definedName>
-    <definedName name="MS">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="mttt">#REF!</definedName>
-    <definedName name="NAM">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Names">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="NETSF">#REF!</definedName>
-    <definedName name="Ok" hidden="1">{"HODSON ST 2",#N/A,FALSE,"St 1 &amp; 2";"HODSON ST 4",#N/A,FALSE,"St 1 &amp; 2"}</definedName>
-    <definedName name="ooii">#REF!</definedName>
-    <definedName name="opopop">#REF!</definedName>
-    <definedName name="oppo">#REF!</definedName>
-    <definedName name="Other">#REF!,#REF!,#REF!</definedName>
-    <definedName name="over">#REF!</definedName>
-    <definedName name="P">#REF!</definedName>
-    <definedName name="p1a">#REF!</definedName>
-    <definedName name="PHASE1">#REF!</definedName>
-    <definedName name="poop">#REF!</definedName>
-    <definedName name="poopo">#REF!</definedName>
-    <definedName name="ppppppp">#REF!</definedName>
-    <definedName name="PRA">'[1]Rental (13)'!$B$71</definedName>
-    <definedName name="Print">#REF!</definedName>
-    <definedName name="PRINT_AREA_MI">#REF!</definedName>
-    <definedName name="Project">#REF!,#REF!</definedName>
-    <definedName name="Project_Budget">#REF!</definedName>
-    <definedName name="projectbudet">#REF!</definedName>
-    <definedName name="qqq">#REF!</definedName>
-    <definedName name="qqqqqqqq">#REF!</definedName>
-    <definedName name="qwt">#REF!</definedName>
-    <definedName name="rate">#REF!</definedName>
-    <definedName name="rate1">#REF!</definedName>
-    <definedName name="rateconst">#REF!</definedName>
-    <definedName name="rdertyhtg">#REF!</definedName>
-    <definedName name="regtergg">#REF!</definedName>
-    <definedName name="rental">#REF!</definedName>
-    <definedName name="rental1">#REF!</definedName>
-    <definedName name="rere">#REF!</definedName>
-    <definedName name="response">#REF!</definedName>
-    <definedName name="responsible">#REF!</definedName>
-    <definedName name="RFI">#REF!</definedName>
-    <definedName name="RFI_1">#REF!</definedName>
-    <definedName name="RFI_TOTAL">#REF!</definedName>
-    <definedName name="rghhh">#REF!</definedName>
-    <definedName name="rhesh">#REF!</definedName>
-    <definedName name="rtu">"L:\Projects\32-03103-00\^dwg\Me\Schedules\SATTEN.X2A"</definedName>
-    <definedName name="sadfg">#REF!</definedName>
-    <definedName name="sccscsc">#REF!</definedName>
-    <definedName name="scd">#REF!</definedName>
-    <definedName name="scdscsdcds">#REF!</definedName>
-    <definedName name="scscsdcsdc">#REF!</definedName>
-    <definedName name="sdcdsc">#REF!</definedName>
-    <definedName name="sdcsdcscscscdsc">#REF!</definedName>
-    <definedName name="sdvdv">#REF!</definedName>
-    <definedName name="sdvsvrf">#REF!</definedName>
-    <definedName name="sefw">#REF!</definedName>
-    <definedName name="seherhg">#REF!</definedName>
-    <definedName name="seheshte">#REF!</definedName>
-    <definedName name="serh">#REF!</definedName>
-    <definedName name="serhrh">#REF!</definedName>
-    <definedName name="serhs">#REF!</definedName>
-    <definedName name="setheshesheh">#REF!</definedName>
-    <definedName name="setrh">#REF!</definedName>
-    <definedName name="shsh">#REF!</definedName>
-    <definedName name="shshss">#REF!</definedName>
-    <definedName name="shsshs">#REF!</definedName>
-    <definedName name="shteshsh">#REF!</definedName>
-    <definedName name="SIX_">#REF!</definedName>
-    <definedName name="SIX_WEEK">#REF!</definedName>
-    <definedName name="Spanner_Auto_File">"L:\projects\O0013100\^dwg\me\sched\boiler.X2A"</definedName>
-    <definedName name="Spanner_Auto_Select">#REF!</definedName>
-    <definedName name="Sq.Ft.">#REF!</definedName>
-    <definedName name="sseestest">#REF!</definedName>
-    <definedName name="sthsh">#REF!</definedName>
-    <definedName name="Taaaaa">[2]Calculator!$AB$83:$HM$85,[2]Calculator!$V$46:$HM$82</definedName>
-    <definedName name="Takt1">#REF!,#REF!</definedName>
-    <definedName name="Takt1.1">#REF!,#REF!</definedName>
-    <definedName name="Takt2">#REF!,#REF!</definedName>
-    <definedName name="Takt2.1">#REF!,#REF!</definedName>
-    <definedName name="Taktplanfivedays">#REF!</definedName>
-    <definedName name="TE">#REF!</definedName>
-    <definedName name="terrance">#REF!</definedName>
-    <definedName name="test">#REF!</definedName>
-    <definedName name="thjtsrh">#REF!</definedName>
-    <definedName name="thtyhrt">#REF!</definedName>
-    <definedName name="tjryjd">#REF!</definedName>
-    <definedName name="total">#REF!</definedName>
-    <definedName name="TR">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="TRADE">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="tyhth">#REF!</definedName>
-    <definedName name="tyul">#REF!</definedName>
-    <definedName name="ughun">#REF!</definedName>
-    <definedName name="uilhkjl">#REF!</definedName>
-    <definedName name="ulgl">#REF!</definedName>
-    <definedName name="under">#REF!</definedName>
-    <definedName name="Unit_Count_B1">#REF!</definedName>
-    <definedName name="Unit_Count_B2">#REF!</definedName>
-    <definedName name="Unit_Count_B3">#REF!</definedName>
-    <definedName name="Unit_Count_B4">#REF!</definedName>
-    <definedName name="UNITNO">#REF!</definedName>
-    <definedName name="uuu">#REF!</definedName>
-    <definedName name="WE">#REF!</definedName>
-    <definedName name="WEEK_PLAN">#REF!</definedName>
-    <definedName name="weferfewf">#REF!</definedName>
-    <definedName name="wgaga">#REF!</definedName>
-    <definedName name="wgrrwag">#REF!</definedName>
-    <definedName name="What">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="will">#REF!</definedName>
-    <definedName name="willy">#REF!</definedName>
-    <definedName name="WO">#REF!</definedName>
-    <definedName name="work">#REF!</definedName>
-    <definedName name="WORK_PLAN">#REF!</definedName>
-    <definedName name="WORKPLAN">#REF!</definedName>
-    <definedName name="WP">#REF!</definedName>
-    <definedName name="wqgwa">#REF!</definedName>
-    <definedName name="wrn.MONTHLY." hidden="1">{"HODSON ST 2",#N/A,FALSE,"St 1 &amp; 2";"HODSON ST 4",#N/A,FALSE,"St 1 &amp; 2"}</definedName>
-    <definedName name="wrwrf">#REF!</definedName>
-    <definedName name="WWP">#REF!</definedName>
-    <definedName name="wwrwww">#REF!</definedName>
-    <definedName name="X">#REF!</definedName>
-    <definedName name="xx">#REF!</definedName>
-    <definedName name="yes">#REF!</definedName>
-    <definedName name="yiug">#REF!</definedName>
-    <definedName name="yjdsj">#REF!</definedName>
-    <definedName name="yyyyy">#REF!</definedName>
-    <definedName name="Z">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="ZONE">OFFSET(#REF!,0,0,COUNTA(#REF!)-2,1)</definedName>
-    <definedName name="zz">#REF!</definedName>
-    <definedName name="zzz">#REF!</definedName>
-    <definedName name="zzzzz">#REF!</definedName>
-    <definedName name="zzzzzzzzz">#REF!</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1007,28 +714,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1052,21 +740,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 4 4 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1079,106 +761,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Rental (13)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Takt - Macro BFRevisions1.17(2)"/>
-      <sheetName val="Delay Substantiation"/>
-      <sheetName val="Takt - Macro"/>
-      <sheetName val="Takt - Macro Remaining Work"/>
-      <sheetName val="TAKT NORM BF REVISIONS 1.17 (2)"/>
-      <sheetName val="Macro Legend"/>
-      <sheetName val="Calculator"/>
-      <sheetName val="Current progress TCKR"/>
-      <sheetName val="Takt Norm Remaining Work"/>
-      <sheetName val="Norm Legend"/>
-      <sheetName val="Roadblock Log"/>
-      <sheetName val="Takt Norm Filter"/>
-      <sheetName val="Procurement"/>
-      <sheetName val="3WLA"/>
-      <sheetName val="Takt Norm 11 Zones"/>
-      <sheetName val="Takt Norm past sequence"/>
-      <sheetName val="Lead Time"/>
-      <sheetName val="Work Density"/>
-      <sheetName val="Production Rates"/>
-      <sheetName val="Takt Norm"/>
-      <sheetName val="SCENARIOS COMPARISON"/>
-      <sheetName val="Filter"/>
-      <sheetName val="Takt Norm BFS"/>
-      <sheetName val="Takt Norm old format"/>
-      <sheetName val="Norm Legend by Phase"/>
-      <sheetName val="Missing Sequences"/>
-      <sheetName val="Durations per unit"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Takt - Norm By TH"/>
-      <sheetName val="Flow Analysis"/>
-      <sheetName val="Buyout Tracker"/>
-      <sheetName val="Submittal Log"/>
-      <sheetName val="Open Submittals"/>
-      <sheetName val="RFI Log"/>
-      <sheetName val="Civil RFIs"/>
-      <sheetName val="Wellness RFIs"/>
-      <sheetName val="Hot Items"/>
-      <sheetName val="Roadblock Log (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1497,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B2A2AA-25B8-4F45-B722-F5158236F38F}">
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
